--- a/Aurora/Testing/Defect Log.xlsx
+++ b/Aurora/Testing/Defect Log.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6002C6BE-6A1C-40E1-9D3E-A719349D7AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9A58F4-6F61-4268-854E-C58D17215F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
   <si>
     <t>Defect Id(Required)</t>
   </si>
@@ -44,18 +44,15 @@
     <t>Defect Status</t>
   </si>
   <si>
-    <t>Defect Severity</t>
-  </si>
-  <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Detected By</t>
   </si>
   <si>
     <t>Assigneed To</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Register</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>Closed</t>
+  </si>
+  <si>
     <t>Girish</t>
   </si>
   <si>
@@ -86,6 +86,12 @@
     <t>Homepage</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>No records found</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t xml:space="preserve">Query filter not working properly </t>
   </si>
   <si>
+    <t>pooja</t>
+  </si>
+  <si>
     <t>Article filter</t>
   </si>
   <si>
@@ -131,12 +140,18 @@
     <t>Data Table in admin pages</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Commentsbox should be displayed only comment is there</t>
   </si>
   <si>
     <t>Specific article,query</t>
   </si>
   <si>
+    <t>Irfan</t>
+  </si>
+  <si>
     <t>Button</t>
   </si>
   <si>
@@ -144,6 +159,376 @@
   </si>
   <si>
     <t>My queries</t>
+  </si>
+  <si>
+    <t>Validation in Login</t>
+  </si>
+  <si>
+    <t>ToReview page</t>
+  </si>
+  <si>
+    <t>To Review page not working correctly</t>
+  </si>
+  <si>
+    <t>ToReviewPage</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally needs to change </t>
+  </si>
+  <si>
+    <t>Register page</t>
+  </si>
+  <si>
+    <t>Prithivi</t>
+  </si>
+  <si>
+    <t>Readmore</t>
+  </si>
+  <si>
+    <t>If the content is less readmore goes top</t>
+  </si>
+  <si>
+    <t>articlecard,myarticle</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Article Filter</t>
+  </si>
+  <si>
+    <t>Have to reset date</t>
+  </si>
+  <si>
+    <t>Articlecard,myarticle</t>
+  </si>
+  <si>
+    <t>Image in create article</t>
+  </si>
+  <si>
+    <t>Image is allowing pdf</t>
+  </si>
+  <si>
+    <t>Createarticle</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Page is not responsive</t>
+  </si>
+  <si>
+    <t>Admin,reviewer dashboard</t>
+  </si>
+  <si>
+    <t>Breadcrumb</t>
+  </si>
+  <si>
+    <t>Have to check</t>
+  </si>
+  <si>
+    <t>all pages</t>
+  </si>
+  <si>
+    <t>Spamview</t>
+  </si>
+  <si>
+    <t>Boundarycheck</t>
+  </si>
+  <si>
+    <t>Sriram</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>sandhiya</t>
+  </si>
+  <si>
+    <t>Date should be refreshed</t>
+  </si>
+  <si>
+    <t>Myquery</t>
+  </si>
+  <si>
+    <t>Fullname Length should be increased</t>
+  </si>
+  <si>
+    <t>Venkateshwaran</t>
+  </si>
+  <si>
+    <t>ACE number length should be increased</t>
+  </si>
+  <si>
+    <t>Add Login page navigation link in register page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejection </t>
+  </si>
+  <si>
+    <t>Reason for rejection page needs breadcrum</t>
+  </si>
+  <si>
+    <t>Reason For Rejection Page</t>
+  </si>
+  <si>
+    <t>Reason for rejection should not be empty.</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Disable user also have access to site.</t>
+  </si>
+  <si>
+    <t>Disable user</t>
+  </si>
+  <si>
+    <t>To reviewspecific page</t>
+  </si>
+  <si>
+    <t>Button in to review specific page is not alligned properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the footer email and details are underlined </t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Reviewer can't see the image added in ck editor while reviewing Article</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>user underverfication has access to home page.</t>
+  </si>
+  <si>
+    <t>Mohammad Rafi</t>
+  </si>
+  <si>
+    <t>check in should be changed  to checkout.</t>
+  </si>
+  <si>
+    <t>To Reviewspecific page</t>
+  </si>
+  <si>
+    <t>toast message in accept article.</t>
+  </si>
+  <si>
+    <t>Add Date and time of comment</t>
+  </si>
+  <si>
+    <t>Space between AlreadyRegister and Login</t>
+  </si>
+  <si>
+    <t>reason for report F should be in Small.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+date and time also in reason for spam.</t>
+  </si>
+  <si>
+    <t>Logo and Name Needs Some Space.</t>
+  </si>
+  <si>
+    <t>post comment button should need space(Post) or change it to POST</t>
+  </si>
+  <si>
+    <t>Breadcrumb Needs to be corrected.</t>
+  </si>
+  <si>
+    <t>BreadCrumb</t>
+  </si>
+  <si>
+    <t>pooja/irfan</t>
+  </si>
+  <si>
+    <t>All Page</t>
+  </si>
+  <si>
+    <t>Font in footer and header should be same</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>Radio button is too close to label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search and textbox is too close </t>
+  </si>
+  <si>
+    <t>Employee Details</t>
+  </si>
+  <si>
+    <t>Employee table header and search are too close.</t>
+  </si>
+  <si>
+    <t>Due to datatable cannot do anything</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Avoid Camel Case</t>
+  </si>
+  <si>
+    <t>Remove Query Button Not Working</t>
+  </si>
+  <si>
+    <t>Query page</t>
+  </si>
+  <si>
+    <t>While we are searching a query pagination error</t>
+  </si>
+  <si>
+    <t>Query Page</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Due to glitch</t>
+  </si>
+  <si>
+    <t>Private Article</t>
+  </si>
+  <si>
+    <t>Private Article is shown to the specific user even it is not reviewed.</t>
+  </si>
+  <si>
+    <t>Manimaran</t>
+  </si>
+  <si>
+    <t>Query is visible to the specific user even it is marked as spam and removed.</t>
+  </si>
+  <si>
+    <t>Upto today's date should be shown ( User can't able to tomorrow's date for search</t>
+  </si>
+  <si>
+    <t>Reviewer Dashboard</t>
+  </si>
+  <si>
+    <t>Pie Chart color and Hover color is not same</t>
+  </si>
+  <si>
+    <t>Update Article</t>
+  </si>
+  <si>
+    <t>Reason rejection box should contains text limit</t>
+  </si>
+  <si>
+    <t>Create article</t>
+  </si>
+  <si>
+    <t>Ck editor Spell Checker not working.</t>
+  </si>
+  <si>
+    <t>Create Article</t>
+  </si>
+  <si>
+    <t>Specific Article</t>
+  </si>
+  <si>
+    <t>Toast Message is also appear when there is no content available.</t>
+  </si>
+  <si>
+    <t>Specific article</t>
+  </si>
+  <si>
+    <t>Comment Function not working</t>
+  </si>
+  <si>
+    <t>Specific Query</t>
+  </si>
+  <si>
+    <t>Read More Button to be shown</t>
+  </si>
+  <si>
+    <t>Change the name of Article reviewed</t>
+  </si>
+  <si>
+    <t>My Query Specific</t>
+  </si>
+  <si>
+    <t>Footer is unstable while there is no comments/answers for it</t>
+  </si>
+  <si>
+    <t>MyQuery Specific</t>
+  </si>
+  <si>
+    <t>Raisequery</t>
+  </si>
+  <si>
+    <t>Query Code having default 200 words limit</t>
+  </si>
+  <si>
+    <t>RaiseQuery</t>
+  </si>
+  <si>
+    <t>Myarticle</t>
+  </si>
+  <si>
+    <t>Date is not showing properly</t>
+  </si>
+  <si>
+    <t>MyArticle</t>
+  </si>
+  <si>
+    <t>Comments also need code allignment function</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>View Article</t>
+  </si>
+  <si>
+    <t>Articlefilter</t>
+  </si>
+  <si>
+    <t>QueryFilter</t>
+  </si>
+  <si>
+    <t>View Query</t>
+  </si>
+  <si>
+    <t>Editarticle</t>
+  </si>
+  <si>
+    <t>View profile</t>
+  </si>
+  <si>
+    <t>To review</t>
+  </si>
+  <si>
+    <t>ArticleReviewed</t>
+  </si>
+  <si>
+    <t>Articlereviwedspecific</t>
+  </si>
+  <si>
+    <t>Reason for article if rejected</t>
+  </si>
+  <si>
+    <t>Userverification</t>
   </si>
 </sst>
 </file>
@@ -207,10 +592,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,26 +915,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,31 +959,31 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -608,11 +996,17 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -625,144 +1019,1746 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
